--- a/fMRI/fx/SST/prepost_analysis/contrast_weights_stopsignal.xlsx
+++ b/fMRI/fx/SST/prepost_analysis/contrast_weights_stopsignal.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadestasio/Desktop/REV_scripts/fMRI/fx/SST/prepost_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784D5F1E-89C9-E942-A2C3-1FB0EC1FC978}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50D5E4-9732-6D4F-B2EC-97C639EB07A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{F44029D5-836C-9941-B0F2-754275B93E74}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16560" xr2:uid="{F44029D5-836C-9941-B0F2-754275B93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Run 1</t>
   </si>
@@ -100,13 +100,23 @@
   <si>
     <t>7_T2(CorrectStop&gt;IncorrectStop)&gt;T1(CorrectStop&gt;IncorrectStop)</t>
   </si>
+  <si>
+    <t>8_T2(AnyStop&gt;CorrectGo)&gt;T1(AnyStop&gt;CorrectGo)</t>
+  </si>
+  <si>
+    <t>9_T2 (Correct Stop) &gt; T1 (Correct Stop)</t>
+  </si>
+  <si>
+    <t>10_T2 (Any Stop) &gt; T1 (Any Stop)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -140,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +223,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,6 +264,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,13 +582,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C102CF70-CBA0-A749-8140-E7CAFBFE284A}">
-  <dimension ref="A1:BI9"/>
+  <dimension ref="A1:BI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -2073,7 +2096,568 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:61" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
+        <v>-0.125</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>-0.125</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <v>-0.125</v>
+      </c>
+      <c r="T10" s="23">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23">
+        <v>-0.125</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0</v>
+      </c>
+      <c r="W10" s="23">
+        <v>0</v>
+      </c>
+      <c r="X10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="AG10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="AI10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="AK10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="23">
+        <v>-0.25</v>
+      </c>
+      <c r="AV10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="AX10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="AZ10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="23">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <f>-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <f>-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0</v>
+      </c>
+      <c r="V11" s="24">
+        <v>0</v>
+      </c>
+      <c r="W11" s="24">
+        <v>0</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AX11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-0.25</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>-0.25</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>-0.25</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>-0.25</v>
+      </c>
+      <c r="V12" s="24">
+        <v>0</v>
+      </c>
+      <c r="W12" s="24">
+        <v>0</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="AI12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="AX12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="AZ12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/fMRI/fx/SST/prepost_analysis/contrast_weights_stopsignal.xlsx
+++ b/fMRI/fx/SST/prepost_analysis/contrast_weights_stopsignal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadestasio/Desktop/REV_scripts/fMRI/fx/SST/prepost_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC99118-DAFD-AC47-8054-1E486924EBB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4ABBD-B43C-A94F-84E7-9DED37B9D3A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16560" xr2:uid="{F44029D5-836C-9941-B0F2-754275B93E74}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16560" xr2:uid="{F44029D5-836C-9941-B0F2-754275B93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C102CF70-CBA0-A749-8140-E7CAFBFE284A}">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W12" workbookViewId="0">
-      <selection activeCell="AF33" sqref="AF33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:AT43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fMRI/fx/SST/prepost_analysis/contrast_weights_stopsignal.xlsx
+++ b/fMRI/fx/SST/prepost_analysis/contrast_weights_stopsignal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadestasio/Desktop/REV_scripts/fMRI/fx/SST/prepost_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4ABBD-B43C-A94F-84E7-9DED37B9D3A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F245D-3E89-3044-93C7-F2D92776CF6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16560" xr2:uid="{F44029D5-836C-9941-B0F2-754275B93E74}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:AT43"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
